--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>nama</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>Thermogun</t>
+  </si>
+  <si>
+    <t>Sinocare BA801</t>
+  </si>
+  <si>
+    <t>Sinocare 50</t>
+  </si>
+  <si>
+    <t>Alat Cek Gula Darah</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A66" si="1">F2 &amp; " - " &amp; E2
+        <f t="shared" ref="A2:A68" si="1">F2 &amp; " - " &amp; E2
 </f>
         <v>Termometer digital  - Thermoone</v>
       </c>
@@ -631,12 +640,12 @@
         <v>20000.0</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C66" si="2">UPPER(LEFT(F2,4) &amp; "-" &amp; LEFT(E2,2) &amp; "-" &amp; TEXT(ROW(A2)-1,"000"))
+        <f t="shared" ref="C2:C68" si="2">UPPER(LEFT(F2,4) &amp; "-" &amp; LEFT(E2,2) &amp; "-" &amp; TEXT(ROW(A2)-1,"000"))
 </f>
         <v>TERM-TH-001</v>
       </c>
       <c r="D2" s="4">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -658,7 +667,7 @@
         <v>CEK - S-002</v>
       </c>
       <c r="D3" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -680,7 +689,7 @@
         <v>ALCO-ON-003</v>
       </c>
       <c r="D4" s="4">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -702,7 +711,7 @@
         <v>BLOO-ON-004</v>
       </c>
       <c r="D5" s="4">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -724,7 +733,7 @@
         <v>TERM-OM-005</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -746,7 +755,7 @@
         <v>SET -ON-006</v>
       </c>
       <c r="D7" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -768,7 +777,7 @@
         <v>SARU-SA-007</v>
       </c>
       <c r="D8" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -790,7 +799,7 @@
         <v>KOTA-ON-008</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -812,7 +821,7 @@
         <v>​ULT-ON-009</v>
       </c>
       <c r="D10" s="4">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
@@ -834,7 +843,7 @@
         <v>TENS--010</v>
       </c>
       <c r="D11" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
@@ -854,7 +863,7 @@
         <v>​PLE-ON-011</v>
       </c>
       <c r="D12" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -876,7 +885,7 @@
         <v>TERM-GP-012</v>
       </c>
       <c r="D13" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
@@ -898,7 +907,7 @@
         <v>ALKO-LS-013</v>
       </c>
       <c r="D14" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>25</v>
@@ -920,7 +929,7 @@
         <v>POVI-ON-014</v>
       </c>
       <c r="D15" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
@@ -942,7 +951,7 @@
         <v>TEST-ON-015</v>
       </c>
       <c r="D16" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>27</v>
@@ -964,7 +973,7 @@
         <v>​I.V-GE-016</v>
       </c>
       <c r="D17" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>30</v>
@@ -986,7 +995,7 @@
         <v>PULS--017</v>
       </c>
       <c r="D18" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>32</v>
@@ -1005,7 +1014,7 @@
         <v>​MES-UP-018</v>
       </c>
       <c r="D19" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>33</v>
@@ -1027,7 +1036,7 @@
         <v>CELA--019</v>
       </c>
       <c r="D20" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>35</v>
@@ -1046,7 +1055,7 @@
         <v>​TEN-OM-020</v>
       </c>
       <c r="D21" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
@@ -1068,7 +1077,7 @@
         <v>KASA-NA-021</v>
       </c>
       <c r="D22" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>37</v>
@@ -1090,7 +1099,7 @@
         <v>NGT -ON-022</v>
       </c>
       <c r="D23" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
@@ -1112,7 +1121,7 @@
         <v>FOLE-GE-023</v>
       </c>
       <c r="D24" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>30</v>
@@ -1134,7 +1143,7 @@
         <v>NASA-GE-024</v>
       </c>
       <c r="D25" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>30</v>
@@ -1156,7 +1165,7 @@
         <v>​SYR-ON-025</v>
       </c>
       <c r="D26" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>27</v>
@@ -1178,7 +1187,7 @@
         <v>​I.V-HE-026</v>
       </c>
       <c r="D27" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>43</v>
@@ -1200,7 +1209,7 @@
         <v>​I.V-HE-027</v>
       </c>
       <c r="D28" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>43</v>
@@ -1222,7 +1231,7 @@
         <v>INFU-ON-028</v>
       </c>
       <c r="D29" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>46</v>
@@ -1244,7 +1253,7 @@
         <v>​ALC-AV-029</v>
       </c>
       <c r="D30" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>48</v>
@@ -1266,7 +1275,7 @@
         <v>PLES-PL-030</v>
       </c>
       <c r="D31" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>50</v>
@@ -1288,7 +1297,7 @@
         <v>SYRI-ON-031</v>
       </c>
       <c r="D32" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>46</v>
@@ -1310,7 +1319,7 @@
         <v>SYRI-ON-032</v>
       </c>
       <c r="D33" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>46</v>
@@ -1332,7 +1341,7 @@
         <v>SYRI-ON-033</v>
       </c>
       <c r="D34" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>46</v>
@@ -1354,7 +1363,7 @@
         <v>DOBL-ON-034</v>
       </c>
       <c r="D35" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>27</v>
@@ -1376,7 +1385,7 @@
         <v>URIN-ON-035</v>
       </c>
       <c r="D36" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>27</v>
@@ -1398,7 +1407,7 @@
         <v>NEED-TE-036</v>
       </c>
       <c r="D37" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>57</v>
@@ -1419,6 +1428,9 @@
         <f t="shared" si="2"/>
         <v>STET-ON-037</v>
       </c>
+      <c r="D38" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
@@ -1438,6 +1450,9 @@
         <f t="shared" si="2"/>
         <v>TOUR-ON-038</v>
       </c>
+      <c r="D39" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E39" s="4" t="s">
         <v>27</v>
       </c>
@@ -1457,6 +1472,9 @@
         <f t="shared" si="2"/>
         <v>PISP-ON-039</v>
       </c>
+      <c r="D40" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E40" s="4" t="s">
         <v>27</v>
       </c>
@@ -1476,6 +1494,9 @@
         <f t="shared" si="2"/>
         <v>STRI-EA-040</v>
       </c>
+      <c r="D41" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E41" s="4" t="s">
         <v>62</v>
       </c>
@@ -1495,6 +1516,9 @@
         <f t="shared" si="2"/>
         <v>ALAT-ON-041</v>
       </c>
+      <c r="D42" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
@@ -1514,6 +1538,9 @@
         <f t="shared" si="2"/>
         <v>WASH-T--042</v>
       </c>
+      <c r="D43" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E43" s="4" t="s">
         <v>65</v>
       </c>
@@ -1533,6 +1560,9 @@
         <f t="shared" si="2"/>
         <v>ALKO-ON-043</v>
       </c>
+      <c r="D44" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E44" s="4" t="s">
         <v>27</v>
       </c>
@@ -1552,6 +1582,9 @@
         <f t="shared" si="2"/>
         <v>TENS-OM-044</v>
       </c>
+      <c r="D45" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>67</v>
       </c>
@@ -1571,6 +1604,9 @@
         <f t="shared" si="2"/>
         <v>ALKO-ON-045</v>
       </c>
+      <c r="D46" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
@@ -1590,6 +1626,9 @@
         <f t="shared" si="2"/>
         <v>TENS-OM-046</v>
       </c>
+      <c r="D47" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E47" s="4" t="s">
         <v>69</v>
       </c>
@@ -1609,6 +1648,9 @@
         <f t="shared" si="2"/>
         <v>STRI-SI-047</v>
       </c>
+      <c r="D48" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
@@ -1628,6 +1670,9 @@
         <f t="shared" si="2"/>
         <v>KASU-ON-048</v>
       </c>
+      <c r="D49" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E49" s="4" t="s">
         <v>27</v>
       </c>
@@ -1647,6 +1692,9 @@
         <f t="shared" si="2"/>
         <v>ALAT-EA-049</v>
       </c>
+      <c r="D50" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E50" s="4" t="s">
         <v>62</v>
       </c>
@@ -1666,6 +1714,9 @@
         <f t="shared" si="2"/>
         <v>STRI-EA-050</v>
       </c>
+      <c r="D51" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E51" s="4" t="s">
         <v>62</v>
       </c>
@@ -1685,6 +1736,9 @@
         <f t="shared" si="2"/>
         <v>TENS-ON-051</v>
       </c>
+      <c r="D52" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E52" s="4" t="s">
         <v>27</v>
       </c>
@@ -1704,6 +1758,9 @@
         <f t="shared" si="2"/>
         <v>SYRI-ON-052</v>
       </c>
+      <c r="D53" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E53" s="4" t="s">
         <v>27</v>
       </c>
@@ -1723,6 +1780,9 @@
         <f t="shared" si="2"/>
         <v>URIN-GE-053</v>
       </c>
+      <c r="D54" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E54" s="4" t="s">
         <v>30</v>
       </c>
@@ -1742,6 +1802,9 @@
         <f t="shared" si="2"/>
         <v>TENS-ON-054</v>
       </c>
+      <c r="D55" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>27</v>
       </c>
@@ -1761,6 +1824,9 @@
         <f t="shared" si="2"/>
         <v>ARM -GL-055</v>
       </c>
+      <c r="D56" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E56" s="4" t="s">
         <v>78</v>
       </c>
@@ -1780,6 +1846,9 @@
         <f t="shared" si="2"/>
         <v>WING-ON-056</v>
       </c>
+      <c r="D57" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E57" s="4" t="s">
         <v>27</v>
       </c>
@@ -1799,6 +1868,9 @@
         <f t="shared" si="2"/>
         <v>PLES-CH-057</v>
       </c>
+      <c r="D58" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E58" s="4" t="s">
         <v>81</v>
       </c>
@@ -1818,6 +1890,9 @@
         <f t="shared" si="2"/>
         <v>TENS-OM-058</v>
       </c>
+      <c r="D59" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E59" s="4" t="s">
         <v>69</v>
       </c>
@@ -1837,6 +1912,9 @@
         <f t="shared" si="2"/>
         <v>GEL -ON-059</v>
       </c>
+      <c r="D60" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E60" s="4" t="s">
         <v>27</v>
       </c>
@@ -1856,6 +1934,9 @@
         <f t="shared" si="2"/>
         <v>OXIM-OM-060</v>
       </c>
+      <c r="D61" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E61" s="4" t="s">
         <v>69</v>
       </c>
@@ -1875,6 +1956,9 @@
         <f t="shared" si="2"/>
         <v>TENS-IT-061</v>
       </c>
+      <c r="D62" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E62" s="4" t="s">
         <v>86</v>
       </c>
@@ -1894,6 +1978,9 @@
         <f t="shared" si="2"/>
         <v>OXIM-OM-062</v>
       </c>
+      <c r="D63" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E63" s="4" t="s">
         <v>69</v>
       </c>
@@ -1913,6 +2000,9 @@
         <f t="shared" si="2"/>
         <v>WASH-ON-063</v>
       </c>
+      <c r="D64" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E64" s="4" t="s">
         <v>88</v>
       </c>
@@ -1932,6 +2022,9 @@
         <f t="shared" si="2"/>
         <v>OXIM-LK-064</v>
       </c>
+      <c r="D65" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E65" s="4" t="s">
         <v>90</v>
       </c>
@@ -1951,6 +2044,9 @@
         <f t="shared" si="2"/>
         <v>THER-GP-065</v>
       </c>
+      <c r="D66" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E66" s="4" t="s">
         <v>92</v>
       </c>
@@ -1958,8 +2054,50 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter digital - Sinocare BA801</v>
+      </c>
+      <c r="B67" s="4">
+        <v>250000.0</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-SI-066</v>
+      </c>
+      <c r="D67" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Alat Cek Gula Darah - Sinocare 50</v>
+      </c>
+      <c r="B68" s="4">
+        <v>150000.0</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALAT-SI-067</v>
+      </c>
+      <c r="D68" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
